--- a/Documentación/Psp's/Axel/InterfazConfiguración/TimeInPhase.xlsx
+++ b/Documentación/Psp's/Axel/InterfazConfiguración/TimeInPhase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AxeelZR\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EA09877-CB1E-4DFE-B1C3-EA0109DC874A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA72DBE6-428F-4CF8-8148-7AB27EB6F309}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
@@ -93,7 +93,7 @@
     <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
   </si>
   <si>
-    <t>Reporte generado a las 04:15 PM el 4/12/2018</t>
+    <t>Reporte generado a las 12:38 PM el 5/12/2018</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1105,10 +1105,10 @@
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="D9" s="9">
-        <v>1.1805555555555555E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="E9" s="10">
-        <v>2.92E-2</v>
+        <v>3.7900000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1122,10 +1122,10 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D10" s="9">
-        <v>0.11180555555555556</v>
+        <v>7.3611111111111113E-2</v>
       </c>
       <c r="E10" s="10">
-        <v>0.27700000000000002</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1139,10 +1139,10 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D11" s="9">
-        <v>3.125E-2</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="E11" s="10">
-        <v>7.7299999999999994E-2</v>
+        <v>8.0799999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1156,10 +1156,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D12" s="9">
-        <v>0.1111111111111111</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="E12" s="10">
-        <v>0.27500000000000002</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1173,10 +1173,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D13" s="9">
-        <v>4.1666666666666664E-2</v>
+        <v>2.361111111111111E-2</v>
       </c>
       <c r="E13" s="10">
-        <v>0.10299999999999999</v>
+        <v>8.5900000000000004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1190,10 +1190,10 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="D14" s="9">
-        <v>1.1805555555555555E-2</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="E14" s="10">
-        <v>2.92E-2</v>
+        <v>4.0399999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1207,10 +1207,10 @@
         <v>3.125E-2</v>
       </c>
       <c r="D15" s="9">
-        <v>6.25E-2</v>
+        <v>3.6805555555555557E-2</v>
       </c>
       <c r="E15" s="10">
-        <v>0.155</v>
+        <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1224,10 +1224,10 @@
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="D16" s="9">
-        <v>2.2222222222222223E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E16" s="10">
-        <v>5.5E-2</v>
+        <v>7.5800000000000006E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1241,7 +1241,7 @@
         <v>0.1673611111111111</v>
       </c>
       <c r="D17" s="9">
-        <v>0.40416666666666662</v>
+        <v>0.27499999999999997</v>
       </c>
       <c r="E17" s="7"/>
     </row>
